--- a/LOGS/ee28273f-763a-4806-85e9-90d78e717975/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/ee28273f-763a-4806-85e9-90d78e717975/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -31,18 +31,17 @@
     <sheet name="26__fbd390e7-20b7-3f" sheetId="22" r:id="rId22"/>
     <sheet name="26__fd32b450-dd14-34" sheetId="23" r:id="rId23"/>
     <sheet name="27__ad70d8e4-65c2-37" sheetId="24" r:id="rId24"/>
-    <sheet name="5__264918a9-ada8-3ad" sheetId="25" r:id="rId25"/>
-    <sheet name="7__2b6c970d-d737-3d6" sheetId="26" r:id="rId26"/>
-    <sheet name="8__2b6c970d-d737-3d6" sheetId="27" r:id="rId27"/>
-    <sheet name="9__2b6c970d-d737-3d6" sheetId="28" r:id="rId28"/>
-    <sheet name="9__d8765e27-2250-395" sheetId="29" r:id="rId29"/>
+    <sheet name="7__2b6c970d-d737-3d6" sheetId="25" r:id="rId25"/>
+    <sheet name="8__2b6c970d-d737-3d6" sheetId="26" r:id="rId26"/>
+    <sheet name="9__2b6c970d-d737-3d6" sheetId="27" r:id="rId27"/>
+    <sheet name="9__d8765e27-2250-395" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="89">
   <si>
     <t>rows</t>
   </si>
@@ -303,15 +302,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Adjusted franking account balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crane sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> After service and parts sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Total Revenue</t>
   </si>
   <si>
     <t xml:space="preserve"> Arising from inventory of cranes</t>
@@ -2858,111 +2848,12 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2">
-        <v>2022</v>
-      </c>
-      <c r="D2">
-        <v>128008786</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3">
-        <v>2022</v>
-      </c>
-      <c r="D3">
-        <v>16051994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4">
-        <v>2022</v>
-      </c>
-      <c r="D4">
-        <v>144417994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5">
-        <v>2021</v>
-      </c>
-      <c r="D5">
-        <v>146106970</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6">
-        <v>2021</v>
-      </c>
-      <c r="D6">
-        <v>13700633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7">
-        <v>2021</v>
-      </c>
-      <c r="D7">
-        <v>160803224</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2993,18 +2884,6 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3027,7 +2906,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -3038,7 +2917,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -3060,7 +2939,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -3071,7 +2950,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>2021</v>
